--- a/biology/Zoologie/Cyriocosmus_versicolor/Cyriocosmus_versicolor.xlsx
+++ b/biology/Zoologie/Cyriocosmus_versicolor/Cyriocosmus_versicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyriocosmus versicolor est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyriocosmus versicolor est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine, au Paraguay et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine, au Paraguay et au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle décrite par Schiapelli et Gerschman en 1973 mesure 25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle décrite par Schiapelli et Gerschman en 1973 mesure 25 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Cyclosternum versicolor par Simon en 1897. Elle est placée dans le genre Hapalopus par Roewer en 1942[3] puis dans le genre Cyriocosmus par Schiapelli et Gerschman en 1973[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Cyclosternum versicolor par Simon en 1897. Elle est placée dans le genre Hapalopus par Roewer en 1942 puis dans le genre Cyriocosmus par Schiapelli et Gerschman en 1973.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1897 : « Liste de arachides recueillis aux îles du Cap Vert, dans la République Argentine et le Paraguay et descriptions d'espèces nouvelles. Viaggio del Dott. A. Borelli nella République Argentina e nel Paraguay. » Bollettino dei Musei di Zoologia ed Anatomia Comparata della Reale Universitá di Torino, vol. 12, no 270, p. 1-8.</t>
         </is>
